--- a/state_results/Rivers/KaikokopuStreamatHimatangiBeach_ca0d1620e2.xlsx
+++ b/state_results/Rivers/KaikokopuStreamatHimatangiBeach_ca0d1620e2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U49"/>
+  <dimension ref="A1:U65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -732,10 +732,10 @@
         <v>280</v>
       </c>
       <c r="G4" t="n">
-        <v>623.664686023768</v>
+        <v>606.7196193499429</v>
       </c>
       <c r="H4" t="n">
-        <v>7538.90492914088</v>
+        <v>6725.54172879727</v>
       </c>
       <c r="I4" t="n">
         <v>2380</v>
@@ -817,10 +817,10 @@
         <v>280</v>
       </c>
       <c r="G5" t="n">
-        <v>623.664686023768</v>
+        <v>606.7196193499429</v>
       </c>
       <c r="H5" t="n">
-        <v>7538.90492914088</v>
+        <v>6725.54172879727</v>
       </c>
       <c r="I5" t="n">
         <v>2380</v>
@@ -902,10 +902,10 @@
         <v>280</v>
       </c>
       <c r="G6" t="n">
-        <v>623.664686023768</v>
+        <v>606.7196193499429</v>
       </c>
       <c r="H6" t="n">
-        <v>7538.90492914088</v>
+        <v>6725.54172879727</v>
       </c>
       <c r="I6" t="n">
         <v>2380</v>
@@ -987,10 +987,10 @@
         <v>280</v>
       </c>
       <c r="G7" t="n">
-        <v>623.664686023768</v>
+        <v>606.7196193499429</v>
       </c>
       <c r="H7" t="n">
-        <v>7538.90492914088</v>
+        <v>6725.54172879727</v>
       </c>
       <c r="I7" t="n">
         <v>2380</v>
@@ -1234,7 +1234,7 @@
         <v>0.21</v>
       </c>
       <c r="G10" t="n">
-        <v>0.485556778979072</v>
+        <v>0.485166568832513</v>
       </c>
       <c r="H10" t="n">
         <v>1.52</v>
@@ -1315,7 +1315,7 @@
         <v>0.21</v>
       </c>
       <c r="G11" t="n">
-        <v>0.485556778979072</v>
+        <v>0.485166568832513</v>
       </c>
       <c r="H11" t="n">
         <v>1.52</v>
@@ -2020,10 +2020,10 @@
         <v>280</v>
       </c>
       <c r="G20" t="n">
-        <v>648.625507273574</v>
+        <v>634.8396903185979</v>
       </c>
       <c r="H20" t="n">
-        <v>7538.90492914088</v>
+        <v>6725.54172879727</v>
       </c>
       <c r="I20" t="n">
         <v>2740</v>
@@ -2105,10 +2105,10 @@
         <v>280</v>
       </c>
       <c r="G21" t="n">
-        <v>648.625507273574</v>
+        <v>634.8396903185979</v>
       </c>
       <c r="H21" t="n">
-        <v>7538.90492914088</v>
+        <v>6725.54172879727</v>
       </c>
       <c r="I21" t="n">
         <v>2740</v>
@@ -2190,10 +2190,10 @@
         <v>280</v>
       </c>
       <c r="G22" t="n">
-        <v>648.625507273574</v>
+        <v>634.8396903185979</v>
       </c>
       <c r="H22" t="n">
-        <v>7538.90492914088</v>
+        <v>6725.54172879727</v>
       </c>
       <c r="I22" t="n">
         <v>2740</v>
@@ -2275,10 +2275,10 @@
         <v>280</v>
       </c>
       <c r="G23" t="n">
-        <v>648.625507273574</v>
+        <v>634.8396903185979</v>
       </c>
       <c r="H23" t="n">
-        <v>7538.90492914088</v>
+        <v>6725.54172879727</v>
       </c>
       <c r="I23" t="n">
         <v>2740</v>
@@ -2522,7 +2522,7 @@
         <v>0.227</v>
       </c>
       <c r="G26" t="n">
-        <v>0.456825871659959</v>
+        <v>0.456165375268079</v>
       </c>
       <c r="H26" t="n">
         <v>1.52</v>
@@ -2603,7 +2603,7 @@
         <v>0.227</v>
       </c>
       <c r="G27" t="n">
-        <v>0.456825871659959</v>
+        <v>0.456165375268079</v>
       </c>
       <c r="H27" t="n">
         <v>1.52</v>
@@ -3308,10 +3308,10 @@
         <v>330</v>
       </c>
       <c r="G36" t="n">
-        <v>714.586660608478</v>
+        <v>700.571548898865</v>
       </c>
       <c r="H36" t="n">
-        <v>7538.90492914088</v>
+        <v>6725.54172879727</v>
       </c>
       <c r="I36" t="n">
         <v>2780</v>
@@ -3393,10 +3393,10 @@
         <v>330</v>
       </c>
       <c r="G37" t="n">
-        <v>714.586660608478</v>
+        <v>700.571548898865</v>
       </c>
       <c r="H37" t="n">
-        <v>7538.90492914088</v>
+        <v>6725.54172879727</v>
       </c>
       <c r="I37" t="n">
         <v>2780</v>
@@ -3478,10 +3478,10 @@
         <v>330</v>
       </c>
       <c r="G38" t="n">
-        <v>714.586660608478</v>
+        <v>700.571548898865</v>
       </c>
       <c r="H38" t="n">
-        <v>7538.90492914088</v>
+        <v>6725.54172879727</v>
       </c>
       <c r="I38" t="n">
         <v>2780</v>
@@ -3563,10 +3563,10 @@
         <v>330</v>
       </c>
       <c r="G39" t="n">
-        <v>714.586660608478</v>
+        <v>700.571548898865</v>
       </c>
       <c r="H39" t="n">
-        <v>7538.90492914088</v>
+        <v>6725.54172879727</v>
       </c>
       <c r="I39" t="n">
         <v>2780</v>
@@ -3810,7 +3810,7 @@
         <v>0.2295</v>
       </c>
       <c r="G42" t="n">
-        <v>0.466667697033406</v>
+        <v>0.465995812772702</v>
       </c>
       <c r="H42" t="n">
         <v>1.52</v>
@@ -3891,7 +3891,7 @@
         <v>0.2295</v>
       </c>
       <c r="G43" t="n">
-        <v>0.466667697033406</v>
+        <v>0.465995812772702</v>
       </c>
       <c r="H43" t="n">
         <v>1.52</v>
@@ -4404,6 +4404,1294 @@
         </is>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Kaikokopu Stream at Himatangi Beach</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.0872037037037037</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.11924</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.13418</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1789261</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5528869</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Northern Manawatu Lakes</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>West_6</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Kaikokopu Stream at Himatangi Beach</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.0872037037037037</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.11924</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.13418</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1789261</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5528869</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Northern Manawatu Lakes</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>West_6</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Kaikokopu Stream at Himatangi Beach</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>335</v>
+      </c>
+      <c r="G52" t="n">
+        <v>719.502774743225</v>
+      </c>
+      <c r="H52" t="n">
+        <v>6725.54172879727</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2943.6</v>
+      </c>
+      <c r="J52" t="n">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="K52" t="n">
+        <v>61.1111111111111</v>
+      </c>
+      <c r="L52" t="n">
+        <v>96</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1189.28</v>
+      </c>
+      <c r="N52" t="n">
+        <v>2221.24</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1789261</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5528869</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Northern Manawatu Lakes</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>West_6</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Kaikokopu Stream at Himatangi Beach</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>335</v>
+      </c>
+      <c r="G53" t="n">
+        <v>719.502774743225</v>
+      </c>
+      <c r="H53" t="n">
+        <v>6725.54172879727</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2943.6</v>
+      </c>
+      <c r="J53" t="n">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="K53" t="n">
+        <v>61.1111111111111</v>
+      </c>
+      <c r="L53" t="n">
+        <v>96</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1189.28</v>
+      </c>
+      <c r="N53" t="n">
+        <v>2221.24</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1789261</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5528869</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Northern Manawatu Lakes</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>West_6</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Kaikokopu Stream at Himatangi Beach</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>335</v>
+      </c>
+      <c r="G54" t="n">
+        <v>719.502774743225</v>
+      </c>
+      <c r="H54" t="n">
+        <v>6725.54172879727</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2943.6</v>
+      </c>
+      <c r="J54" t="n">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="K54" t="n">
+        <v>61.1111111111111</v>
+      </c>
+      <c r="L54" t="n">
+        <v>96</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1189.28</v>
+      </c>
+      <c r="N54" t="n">
+        <v>2221.24</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1789261</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5528869</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Northern Manawatu Lakes</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>West_6</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Kaikokopu Stream at Himatangi Beach</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>335</v>
+      </c>
+      <c r="G55" t="n">
+        <v>719.502774743225</v>
+      </c>
+      <c r="H55" t="n">
+        <v>6725.54172879727</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2943.6</v>
+      </c>
+      <c r="J55" t="n">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="K55" t="n">
+        <v>61.1111111111111</v>
+      </c>
+      <c r="L55" t="n">
+        <v>96</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1189.28</v>
+      </c>
+      <c r="N55" t="n">
+        <v>2221.24</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1789261</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5528869</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Northern Manawatu Lakes</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>West_6</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Kaikokopu Stream at Himatangi Beach</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0.2191</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.268325743806501</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1.46306340177539</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.73445</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>0.29699</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.34885</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.54176</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1789261</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5528869</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Northern Manawatu Lakes</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>West_6</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Kaikokopu Stream at Himatangi Beach</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0.2191</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.268325743806501</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1.46306340177539</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.73445</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>0.29699</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.34885</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.54176</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1789261</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5528869</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Northern Manawatu Lakes</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>West_6</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Kaikokopu Stream at Himatangi Beach</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>0.2295</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.46927523536412</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1.386</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>0.02773</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.1232</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1.2798</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1789261</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5528869</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>Northern Manawatu Lakes</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>West_6</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Kaikokopu Stream at Himatangi Beach</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>0.2295</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.46927523536412</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1.386</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>0.02773</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1.1232</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1.2798</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1789261</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5528869</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>Northern Manawatu Lakes</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>West_6</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Kaikokopu Stream at Himatangi Beach</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.917777777777778</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1.5328</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1.7818</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1789261</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5528869</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>Northern Manawatu Lakes</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>West_6</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Kaikokopu Stream at Himatangi Beach</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.917777777777778</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1.5328</v>
+      </c>
+      <c r="N61" t="n">
+        <v>1.7818</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1789261</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5528869</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>Northern Manawatu Lakes</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>West_6</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Kaikokopu Stream at Himatangi Beach</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>2.105</v>
+      </c>
+      <c r="G62" t="n">
+        <v>2.23592592592593</v>
+      </c>
+      <c r="H62" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="I62" t="n">
+        <v>3.134</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2.826</v>
+      </c>
+      <c r="N62" t="n">
+        <v>3.0454</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1789261</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5528869</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>Northern Manawatu Lakes</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>West_6</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Kaikokopu Stream at Himatangi Beach</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>2.105</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2.23592592592593</v>
+      </c>
+      <c r="H63" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="I63" t="n">
+        <v>3.134</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2.826</v>
+      </c>
+      <c r="N63" t="n">
+        <v>3.0454</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1789261</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5528869</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>Northern Manawatu Lakes</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>West_6</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Kaikokopu Stream at Himatangi Beach</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.318592592592593</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.7158</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.41292</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.6509200000000001</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1789261</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5528869</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>Northern Manawatu Lakes</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>West_6</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Kaikokopu Stream at Himatangi Beach</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.318592592592593</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.7158</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.41292</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.6509200000000001</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1789261</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5528869</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>Northern Manawatu Lakes</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>West_6</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/KaikokopuStreamatHimatangiBeach_ca0d1620e2.xlsx
+++ b/state_results/Rivers/KaikokopuStreamatHimatangiBeach_ca0d1620e2.xlsx
@@ -732,10 +732,10 @@
         <v>280</v>
       </c>
       <c r="G4" t="n">
-        <v>606.7196193499429</v>
+        <v>608.891656735989</v>
       </c>
       <c r="H4" t="n">
-        <v>6725.54172879727</v>
+        <v>6829.79952332748</v>
       </c>
       <c r="I4" t="n">
         <v>2380</v>
@@ -817,10 +817,10 @@
         <v>280</v>
       </c>
       <c r="G5" t="n">
-        <v>606.7196193499429</v>
+        <v>608.891656735989</v>
       </c>
       <c r="H5" t="n">
-        <v>6725.54172879727</v>
+        <v>6829.79952332748</v>
       </c>
       <c r="I5" t="n">
         <v>2380</v>
@@ -902,10 +902,10 @@
         <v>280</v>
       </c>
       <c r="G6" t="n">
-        <v>606.7196193499429</v>
+        <v>608.891656735989</v>
       </c>
       <c r="H6" t="n">
-        <v>6725.54172879727</v>
+        <v>6829.79952332748</v>
       </c>
       <c r="I6" t="n">
         <v>2380</v>
@@ -987,10 +987,10 @@
         <v>280</v>
       </c>
       <c r="G7" t="n">
-        <v>606.7196193499429</v>
+        <v>608.891656735989</v>
       </c>
       <c r="H7" t="n">
-        <v>6725.54172879727</v>
+        <v>6829.79952332748</v>
       </c>
       <c r="I7" t="n">
         <v>2380</v>
@@ -2020,10 +2020,10 @@
         <v>280</v>
       </c>
       <c r="G20" t="n">
-        <v>634.8396903185979</v>
+        <v>636.606771581822</v>
       </c>
       <c r="H20" t="n">
-        <v>6725.54172879727</v>
+        <v>6829.79952332748</v>
       </c>
       <c r="I20" t="n">
         <v>2740</v>
@@ -2105,10 +2105,10 @@
         <v>280</v>
       </c>
       <c r="G21" t="n">
-        <v>634.8396903185979</v>
+        <v>636.606771581822</v>
       </c>
       <c r="H21" t="n">
-        <v>6725.54172879727</v>
+        <v>6829.79952332748</v>
       </c>
       <c r="I21" t="n">
         <v>2740</v>
@@ -2190,10 +2190,10 @@
         <v>280</v>
       </c>
       <c r="G22" t="n">
-        <v>634.8396903185979</v>
+        <v>636.606771581822</v>
       </c>
       <c r="H22" t="n">
-        <v>6725.54172879727</v>
+        <v>6829.79952332748</v>
       </c>
       <c r="I22" t="n">
         <v>2740</v>
@@ -2275,10 +2275,10 @@
         <v>280</v>
       </c>
       <c r="G23" t="n">
-        <v>634.8396903185979</v>
+        <v>636.606771581822</v>
       </c>
       <c r="H23" t="n">
-        <v>6725.54172879727</v>
+        <v>6829.79952332748</v>
       </c>
       <c r="I23" t="n">
         <v>2740</v>
@@ -3308,10 +3308,10 @@
         <v>330</v>
       </c>
       <c r="G36" t="n">
-        <v>700.571548898865</v>
+        <v>702.36909708042</v>
       </c>
       <c r="H36" t="n">
-        <v>6725.54172879727</v>
+        <v>6829.79952332748</v>
       </c>
       <c r="I36" t="n">
         <v>2780</v>
@@ -3393,10 +3393,10 @@
         <v>330</v>
       </c>
       <c r="G37" t="n">
-        <v>700.571548898865</v>
+        <v>702.36909708042</v>
       </c>
       <c r="H37" t="n">
-        <v>6725.54172879727</v>
+        <v>6829.79952332748</v>
       </c>
       <c r="I37" t="n">
         <v>2780</v>
@@ -3478,10 +3478,10 @@
         <v>330</v>
       </c>
       <c r="G38" t="n">
-        <v>700.571548898865</v>
+        <v>702.36909708042</v>
       </c>
       <c r="H38" t="n">
-        <v>6725.54172879727</v>
+        <v>6829.79952332748</v>
       </c>
       <c r="I38" t="n">
         <v>2780</v>
@@ -3563,10 +3563,10 @@
         <v>330</v>
       </c>
       <c r="G39" t="n">
-        <v>700.571548898865</v>
+        <v>702.36909708042</v>
       </c>
       <c r="H39" t="n">
-        <v>6725.54172879727</v>
+        <v>6829.79952332748</v>
       </c>
       <c r="I39" t="n">
         <v>2780</v>
@@ -4596,10 +4596,10 @@
         <v>335</v>
       </c>
       <c r="G52" t="n">
-        <v>719.502774743225</v>
+        <v>721.433474641932</v>
       </c>
       <c r="H52" t="n">
-        <v>6725.54172879727</v>
+        <v>6829.79952332748</v>
       </c>
       <c r="I52" t="n">
         <v>2943.6</v>
@@ -4681,10 +4681,10 @@
         <v>335</v>
       </c>
       <c r="G53" t="n">
-        <v>719.502774743225</v>
+        <v>721.433474641932</v>
       </c>
       <c r="H53" t="n">
-        <v>6725.54172879727</v>
+        <v>6829.79952332748</v>
       </c>
       <c r="I53" t="n">
         <v>2943.6</v>
@@ -4766,10 +4766,10 @@
         <v>335</v>
       </c>
       <c r="G54" t="n">
-        <v>719.502774743225</v>
+        <v>721.433474641932</v>
       </c>
       <c r="H54" t="n">
-        <v>6725.54172879727</v>
+        <v>6829.79952332748</v>
       </c>
       <c r="I54" t="n">
         <v>2943.6</v>
@@ -4851,10 +4851,10 @@
         <v>335</v>
       </c>
       <c r="G55" t="n">
-        <v>719.502774743225</v>
+        <v>721.433474641932</v>
       </c>
       <c r="H55" t="n">
-        <v>6725.54172879727</v>
+        <v>6829.79952332748</v>
       </c>
       <c r="I55" t="n">
         <v>2943.6</v>
